--- a/artfynd/A 33422-2021.xlsx
+++ b/artfynd/A 33422-2021.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>89596126</v>
+        <v>94996219</v>
       </c>
       <c r="B2" t="n">
-        <v>56411</v>
+        <v>78570</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,37 +696,38 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>100049</v>
+        <v>2081</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Strömsfjällvallen, Hjd</t>
+          <t>Härjedalen, Hjd</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>444929.0050177791</v>
+        <v>445370.7671139772</v>
       </c>
       <c r="R2" t="n">
-        <v>6928327.074997591</v>
+        <v>6928604.672176878</v>
       </c>
       <c r="S2" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -750,7 +751,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2020-09-25</t>
+          <t>2021-07-20</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -760,7 +761,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2020-09-25</t>
+          <t>2021-07-20</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -770,7 +771,7 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>Födosökshack</t>
+          <t>På jättesälg ca 45 cm diameter.</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -785,26 +786,22 @@
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Jens Johannesson</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Jan Henriksson</t>
-        </is>
-      </c>
-      <c r="AY2" t="inlineStr">
-        <is>
-          <t>Kontinuitetsskogar och skogar med höga naturvärden ovan och i nära anslutning till fjällnära gränsen</t>
-        </is>
-      </c>
+          <t>Jens Johannesson</t>
+        </is>
+      </c>
+      <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>89596129</v>
+        <v>89596109</v>
       </c>
       <c r="B3" t="n">
-        <v>76909</v>
+        <v>78570</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -817,21 +814,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6437</v>
+        <v>2081</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Blanksvart spiklav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Calicium denigratum</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -841,10 +838,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>445032.0268228107</v>
+        <v>445260.1075701897</v>
       </c>
       <c r="R3" t="n">
-        <v>6928535.7939387</v>
+        <v>6928606.027293501</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -917,10 +914,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>89596127</v>
+        <v>94996005</v>
       </c>
       <c r="B4" t="n">
-        <v>73693</v>
+        <v>78570</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -933,37 +930,38 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6440</v>
+        <v>2081</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Strömsfjällvallen, Hjd</t>
+          <t>Härjedalen, Hjd</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>444967.7734563763</v>
+        <v>445261.8150698114</v>
       </c>
       <c r="R4" t="n">
-        <v>6928430.952647353</v>
+        <v>6928597.212872105</v>
       </c>
       <c r="S4" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -987,7 +985,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2020-09-25</t>
+          <t>2021-07-20</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -997,12 +995,17 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2020-09-25</t>
+          <t>2021-07-20</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>Mkt gammal sälg, fin skog på åsar.</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1017,26 +1020,22 @@
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Jens Johannesson</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Jan Henriksson</t>
-        </is>
-      </c>
-      <c r="AY4" t="inlineStr">
-        <is>
-          <t>Kontinuitetsskogar och skogar med höga naturvärden ovan och i nära anslutning till fjällnära gränsen</t>
-        </is>
-      </c>
+          <t>Jens Johannesson</t>
+        </is>
+      </c>
+      <c r="AY4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>89596128</v>
+        <v>89596129</v>
       </c>
       <c r="B5" t="n">
-        <v>77506</v>
+        <v>76909</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1049,21 +1048,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6425</v>
+        <v>6437</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Blanksvart spiklav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Calicium denigratum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1073,10 +1072,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>445020.0425569176</v>
+        <v>445032.0268228107</v>
       </c>
       <c r="R5" t="n">
-        <v>6928539.228960108</v>
+        <v>6928535.7939387</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1149,10 +1148,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>94995564</v>
+        <v>89596128</v>
       </c>
       <c r="B6" t="n">
-        <v>95525</v>
+        <v>77506</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1161,43 +1160,41 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>221941</v>
+        <v>6425</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Lycopodium complanatum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Härjedalen, Hjd</t>
+          <t>Strömsfjällvallen, Hjd</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>445086.0189850244</v>
+        <v>445020.0425569176</v>
       </c>
       <c r="R6" t="n">
-        <v>6928496.057011075</v>
+        <v>6928539.228960108</v>
       </c>
       <c r="S6" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1221,7 +1218,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2021-07-20</t>
+          <t>2020-09-25</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1231,17 +1228,12 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2021-07-20</t>
+          <t>2020-09-25</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>Tallskog, ås.</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1256,22 +1248,26 @@
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>Jens Johannesson</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Jens Johannesson</t>
-        </is>
-      </c>
-      <c r="AY6" t="inlineStr"/>
+          <t>Jan Henriksson</t>
+        </is>
+      </c>
+      <c r="AY6" t="inlineStr">
+        <is>
+          <t>Kontinuitetsskogar och skogar med höga naturvärden ovan och i nära anslutning till fjällnära gränsen</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>89596109</v>
+        <v>94995564</v>
       </c>
       <c r="B7" t="n">
-        <v>78570</v>
+        <v>95525</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1280,41 +1276,43 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>2081</v>
+        <v>221941</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Lycopodium complanatum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Strömsfjällvallen, Hjd</t>
+          <t>Härjedalen, Hjd</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>445260.1075701897</v>
+        <v>445086.0189850244</v>
       </c>
       <c r="R7" t="n">
-        <v>6928606.027293501</v>
+        <v>6928496.057011075</v>
       </c>
       <c r="S7" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1338,7 +1336,7 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2020-09-25</t>
+          <t>2021-07-20</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -1348,12 +1346,17 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2020-09-25</t>
+          <t>2021-07-20</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>Tallskog, ås.</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1368,19 +1371,15 @@
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Jens Johannesson</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Jan Henriksson</t>
-        </is>
-      </c>
-      <c r="AY7" t="inlineStr">
-        <is>
-          <t>Kontinuitetsskogar och skogar med höga naturvärden ovan och i nära anslutning till fjällnära gränsen</t>
-        </is>
-      </c>
+          <t>Jens Johannesson</t>
+        </is>
+      </c>
+      <c r="AY7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1737,10 +1736,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>94996219</v>
+        <v>89596126</v>
       </c>
       <c r="B11" t="n">
-        <v>78570</v>
+        <v>56411</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1753,38 +1752,37 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2081</v>
+        <v>100049</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Härjedalen, Hjd</t>
+          <t>Strömsfjällvallen, Hjd</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>445370.7671139772</v>
+        <v>444929.0050177791</v>
       </c>
       <c r="R11" t="n">
-        <v>6928604.672176878</v>
+        <v>6928327.074997591</v>
       </c>
       <c r="S11" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1808,7 +1806,7 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>2021-07-20</t>
+          <t>2020-09-25</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
@@ -1818,7 +1816,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2021-07-20</t>
+          <t>2020-09-25</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
@@ -1828,7 +1826,7 @@
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>På jättesälg ca 45 cm diameter.</t>
+          <t>Födosökshack</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1843,22 +1841,26 @@
       <c r="AT11" t="inlineStr"/>
       <c r="AW11" t="inlineStr">
         <is>
-          <t>Jens Johannesson</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>Jens Johannesson</t>
-        </is>
-      </c>
-      <c r="AY11" t="inlineStr"/>
+          <t>Jan Henriksson</t>
+        </is>
+      </c>
+      <c r="AY11" t="inlineStr">
+        <is>
+          <t>Kontinuitetsskogar och skogar med höga naturvärden ovan och i nära anslutning till fjällnära gränsen</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>94996005</v>
+        <v>89596127</v>
       </c>
       <c r="B12" t="n">
-        <v>78570</v>
+        <v>73693</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1871,38 +1873,37 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>2081</v>
+        <v>6440</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Härjedalen, Hjd</t>
+          <t>Strömsfjällvallen, Hjd</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>445261.8150698114</v>
+        <v>444967.7734563763</v>
       </c>
       <c r="R12" t="n">
-        <v>6928597.212872105</v>
+        <v>6928430.952647353</v>
       </c>
       <c r="S12" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1926,7 +1927,7 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>2021-07-20</t>
+          <t>2020-09-25</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
@@ -1936,17 +1937,12 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2021-07-20</t>
+          <t>2020-09-25</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>Mkt gammal sälg, fin skog på åsar.</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1961,15 +1957,19 @@
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>Jens Johannesson</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Jens Johannesson</t>
-        </is>
-      </c>
-      <c r="AY12" t="inlineStr"/>
+          <t>Jan Henriksson</t>
+        </is>
+      </c>
+      <c r="AY12" t="inlineStr">
+        <is>
+          <t>Kontinuitetsskogar och skogar med höga naturvärden ovan och i nära anslutning till fjällnära gränsen</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/artfynd/A 33422-2021.xlsx
+++ b/artfynd/A 33422-2021.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>94996219</v>
+        <v>89596126</v>
       </c>
       <c r="B2" t="n">
-        <v>78570</v>
+        <v>56411</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,38 +696,37 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2081</v>
+        <v>100049</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Härjedalen, Hjd</t>
+          <t>Strömsfjällvallen, Hjd</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>445370.7671139772</v>
+        <v>444929.0050177791</v>
       </c>
       <c r="R2" t="n">
-        <v>6928604.672176878</v>
+        <v>6928327.074997591</v>
       </c>
       <c r="S2" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -751,7 +750,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2021-07-20</t>
+          <t>2020-09-25</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -761,7 +760,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2021-07-20</t>
+          <t>2020-09-25</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -771,7 +770,7 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>På jättesälg ca 45 cm diameter.</t>
+          <t>Födosökshack</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -786,22 +785,26 @@
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Jens Johannesson</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Jens Johannesson</t>
-        </is>
-      </c>
-      <c r="AY2" t="inlineStr"/>
+          <t>Jan Henriksson</t>
+        </is>
+      </c>
+      <c r="AY2" t="inlineStr">
+        <is>
+          <t>Kontinuitetsskogar och skogar med höga naturvärden ovan och i nära anslutning till fjällnära gränsen</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>89596109</v>
+        <v>89596129</v>
       </c>
       <c r="B3" t="n">
-        <v>78570</v>
+        <v>76909</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -814,21 +817,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2081</v>
+        <v>6437</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Blanksvart spiklav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Calicium denigratum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -838,10 +841,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>445260.1075701897</v>
+        <v>445032.0268228107</v>
       </c>
       <c r="R3" t="n">
-        <v>6928606.027293501</v>
+        <v>6928535.7939387</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -914,10 +917,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>94996005</v>
+        <v>89596127</v>
       </c>
       <c r="B4" t="n">
-        <v>78570</v>
+        <v>73693</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -930,38 +933,37 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2081</v>
+        <v>6440</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Härjedalen, Hjd</t>
+          <t>Strömsfjällvallen, Hjd</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>445261.8150698114</v>
+        <v>444967.7734563763</v>
       </c>
       <c r="R4" t="n">
-        <v>6928597.212872105</v>
+        <v>6928430.952647353</v>
       </c>
       <c r="S4" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -985,7 +987,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2021-07-20</t>
+          <t>2020-09-25</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -995,17 +997,12 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2021-07-20</t>
+          <t>2020-09-25</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>Mkt gammal sälg, fin skog på åsar.</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1020,22 +1017,26 @@
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>Jens Johannesson</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Jens Johannesson</t>
-        </is>
-      </c>
-      <c r="AY4" t="inlineStr"/>
+          <t>Jan Henriksson</t>
+        </is>
+      </c>
+      <c r="AY4" t="inlineStr">
+        <is>
+          <t>Kontinuitetsskogar och skogar med höga naturvärden ovan och i nära anslutning till fjällnära gränsen</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>89596129</v>
+        <v>89596128</v>
       </c>
       <c r="B5" t="n">
-        <v>76909</v>
+        <v>77506</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1048,21 +1049,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6437</v>
+        <v>6425</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Blanksvart spiklav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Calicium denigratum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1072,10 +1073,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>445032.0268228107</v>
+        <v>445020.0425569176</v>
       </c>
       <c r="R5" t="n">
-        <v>6928535.7939387</v>
+        <v>6928539.228960108</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1148,10 +1149,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>89596128</v>
+        <v>94995564</v>
       </c>
       <c r="B6" t="n">
-        <v>77506</v>
+        <v>95525</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1160,41 +1161,43 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6425</v>
+        <v>221941</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lycopodium complanatum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Strömsfjällvallen, Hjd</t>
+          <t>Härjedalen, Hjd</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>445020.0425569176</v>
+        <v>445086.0189850244</v>
       </c>
       <c r="R6" t="n">
-        <v>6928539.228960108</v>
+        <v>6928496.057011075</v>
       </c>
       <c r="S6" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1218,7 +1221,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2020-09-25</t>
+          <t>2021-07-20</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1228,12 +1231,17 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2020-09-25</t>
+          <t>2021-07-20</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>Tallskog, ås.</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1248,26 +1256,22 @@
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Jens Johannesson</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Jan Henriksson</t>
-        </is>
-      </c>
-      <c r="AY6" t="inlineStr">
-        <is>
-          <t>Kontinuitetsskogar och skogar med höga naturvärden ovan och i nära anslutning till fjällnära gränsen</t>
-        </is>
-      </c>
+          <t>Jens Johannesson</t>
+        </is>
+      </c>
+      <c r="AY6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>94995564</v>
+        <v>89596109</v>
       </c>
       <c r="B7" t="n">
-        <v>95525</v>
+        <v>78570</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1276,43 +1280,41 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>221941</v>
+        <v>2081</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Lycopodium complanatum</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Härjedalen, Hjd</t>
+          <t>Strömsfjällvallen, Hjd</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>445086.0189850244</v>
+        <v>445260.1075701897</v>
       </c>
       <c r="R7" t="n">
-        <v>6928496.057011075</v>
+        <v>6928606.027293501</v>
       </c>
       <c r="S7" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1336,7 +1338,7 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2021-07-20</t>
+          <t>2020-09-25</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -1346,17 +1348,12 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2021-07-20</t>
+          <t>2020-09-25</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>Tallskog, ås.</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1371,15 +1368,19 @@
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>Jens Johannesson</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Jens Johannesson</t>
-        </is>
-      </c>
-      <c r="AY7" t="inlineStr"/>
+          <t>Jan Henriksson</t>
+        </is>
+      </c>
+      <c r="AY7" t="inlineStr">
+        <is>
+          <t>Kontinuitetsskogar och skogar med höga naturvärden ovan och i nära anslutning till fjällnära gränsen</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1736,10 +1737,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>89596126</v>
+        <v>94996219</v>
       </c>
       <c r="B11" t="n">
-        <v>56411</v>
+        <v>78570</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1752,37 +1753,38 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>100049</v>
+        <v>2081</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Strömsfjällvallen, Hjd</t>
+          <t>Härjedalen, Hjd</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>444929.0050177791</v>
+        <v>445370.7671139772</v>
       </c>
       <c r="R11" t="n">
-        <v>6928327.074997591</v>
+        <v>6928604.672176878</v>
       </c>
       <c r="S11" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1806,7 +1808,7 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>2020-09-25</t>
+          <t>2021-07-20</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
@@ -1816,7 +1818,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2020-09-25</t>
+          <t>2021-07-20</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
@@ -1826,7 +1828,7 @@
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>Födosökshack</t>
+          <t>På jättesälg ca 45 cm diameter.</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1841,26 +1843,22 @@
       <c r="AT11" t="inlineStr"/>
       <c r="AW11" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Jens Johannesson</t>
         </is>
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>Jan Henriksson</t>
-        </is>
-      </c>
-      <c r="AY11" t="inlineStr">
-        <is>
-          <t>Kontinuitetsskogar och skogar med höga naturvärden ovan och i nära anslutning till fjällnära gränsen</t>
-        </is>
-      </c>
+          <t>Jens Johannesson</t>
+        </is>
+      </c>
+      <c r="AY11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>89596127</v>
+        <v>94996005</v>
       </c>
       <c r="B12" t="n">
-        <v>73693</v>
+        <v>78570</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1873,37 +1871,38 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6440</v>
+        <v>2081</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Strömsfjällvallen, Hjd</t>
+          <t>Härjedalen, Hjd</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>444967.7734563763</v>
+        <v>445261.8150698114</v>
       </c>
       <c r="R12" t="n">
-        <v>6928430.952647353</v>
+        <v>6928597.212872105</v>
       </c>
       <c r="S12" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1927,7 +1926,7 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>2020-09-25</t>
+          <t>2021-07-20</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
@@ -1937,12 +1936,17 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2020-09-25</t>
+          <t>2021-07-20</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>Mkt gammal sälg, fin skog på åsar.</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1957,19 +1961,15 @@
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Jens Johannesson</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Jan Henriksson</t>
-        </is>
-      </c>
-      <c r="AY12" t="inlineStr">
-        <is>
-          <t>Kontinuitetsskogar och skogar med höga naturvärden ovan och i nära anslutning till fjällnära gränsen</t>
-        </is>
-      </c>
+          <t>Jens Johannesson</t>
+        </is>
+      </c>
+      <c r="AY12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
